--- a/assets/Agile Estimator.xlsx
+++ b/assets/Agile Estimator.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Agile Estimator - Table 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Agile Estimator - Drawings" sheetId="6" r:id="rId2"/>
+    <sheet name="Agile Estimator" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2690,8 +2689,8 @@
   </sheetPr>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2741,7 +2740,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <f>$E14*$F14</f>
+        <f t="shared" ref="G14:G19" si="0">$E14*$F14</f>
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2761,7 +2760,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
-        <f>$E15*$F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -2781,15 +2780,13 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
-        <f>$E16*$F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="6">
-        <v>13</v>
-      </c>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -2800,7 +2797,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <f>$E17*$F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -2820,7 +2817,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f>$E18*$F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2829,7 +2826,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <f>$E19*$F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2850,28 +2847,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>